--- a/data/trans_orig/iP30KDA5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB555208-14E1-4D8D-B016-782AD8411E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D6E9955-8907-4D2F-973F-9D33A105B2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99BD02C4-01CB-48EF-AB86-65BD2FFF0DC4}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{CE6BCBCA-9B0A-4F43-8887-2243084092E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si consumen pescados con regularidad (por lo menos 2-3 veces a la semana) en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,253 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -726,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DB963E-ABEA-41F8-AD0D-06206684BB79}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03881FD-1319-4847-B0BF-BC124A0F26B5}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -844,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>40667</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>45928</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>86594</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13032</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>12417</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>25449</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -942,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>58345</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>112043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>60</v>
+        <v>506</v>
       </c>
       <c r="D7" s="7">
-        <v>44219</v>
+        <v>368267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>49</v>
+        <v>518</v>
       </c>
       <c r="I7" s="7">
-        <v>38290</v>
+        <v>415290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>109</v>
+        <v>1024</v>
       </c>
       <c r="N7" s="7">
-        <v>82510</v>
+        <v>783557</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="D8" s="7">
-        <v>11294</v>
+        <v>83565</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I8" s="7">
-        <v>11864</v>
+        <v>89960</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="N8" s="7">
-        <v>23157</v>
+        <v>173525</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1095,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>625</v>
       </c>
       <c r="D9" s="7">
-        <v>55513</v>
+        <v>451832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>505250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>144</v>
+        <v>1255</v>
       </c>
       <c r="N9" s="7">
-        <v>105667</v>
+        <v>957082</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>518</v>
+        <v>178</v>
       </c>
       <c r="D10" s="7">
-        <v>398645</v>
+        <v>115926</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>506</v>
+        <v>194</v>
       </c>
       <c r="I10" s="7">
-        <v>357513</v>
+        <v>147544</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1024</v>
+        <v>372</v>
       </c>
       <c r="N10" s="7">
-        <v>756158</v>
+        <v>263469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>82681</v>
+        <v>30260</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>83741</v>
+        <v>33595</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="N11" s="7">
-        <v>166422</v>
+        <v>63855</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>481326</v>
+        <v>146186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>625</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>441254</v>
+        <v>181139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1255</v>
+        <v>455</v>
       </c>
       <c r="N12" s="7">
-        <v>922580</v>
+        <v>327324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>194</v>
+        <v>733</v>
       </c>
       <c r="D13" s="7">
-        <v>141304</v>
+        <v>524861</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>178</v>
+        <v>772</v>
       </c>
       <c r="I13" s="7">
-        <v>117998</v>
+        <v>608760</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>372</v>
+        <v>1505</v>
       </c>
       <c r="N13" s="7">
-        <v>259301</v>
+        <v>1133621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="D14" s="7">
-        <v>31190</v>
+        <v>126856</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="I14" s="7">
-        <v>30032</v>
+        <v>135973</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="N14" s="7">
-        <v>61223</v>
+        <v>262829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>914</v>
       </c>
       <c r="D15" s="7">
-        <v>172494</v>
+        <v>651717</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>940</v>
       </c>
       <c r="I15" s="7">
-        <v>148030</v>
+        <v>744733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>455</v>
+        <v>1854</v>
       </c>
       <c r="N15" s="7">
-        <v>320524</v>
+        <v>1396450</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>772</v>
-      </c>
-      <c r="D16" s="7">
-        <v>584168</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="7">
-        <v>734</v>
-      </c>
-      <c r="I16" s="7">
-        <v>514972</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1506</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1099140</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>168</v>
-      </c>
-      <c r="D17" s="7">
-        <v>125165</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="7">
-        <v>181</v>
-      </c>
-      <c r="I17" s="7">
-        <v>125637</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="7">
-        <v>349</v>
-      </c>
-      <c r="N17" s="7">
-        <v>250802</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>940</v>
-      </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
-      <c r="I18" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
